--- a/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,25 +608,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -634,75 +634,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -721,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,25 +855,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -839,75 +881,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -926,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,25 +1102,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1044,75 +1128,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1131,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,25 +1349,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1249,75 +1375,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1336,7 +1504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,25 +1596,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1454,75 +1622,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1541,7 +1751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,25 +1843,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1659,75 +1869,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1746,7 +1998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,25 +2090,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1864,75 +2116,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1951,7 +2245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,25 +2337,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2069,75 +2363,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2156,7 +2492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,25 +2584,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2274,75 +2610,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2361,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2453,25 +2831,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2479,75 +2857,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2566,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,25 +3078,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2684,75 +3104,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2771,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2863,25 +3325,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2889,75 +3351,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2976,7 +3480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3068,25 +3572,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3094,75 +3598,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3181,7 +3727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,25 +3819,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3299,75 +3845,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3386,7 +3974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3478,25 +4066,25 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3504,75 +4092,117 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB04</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,34 +608,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -647,49 +647,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -699,52 +692,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -763,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,34 +902,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -894,49 +941,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -946,52 +986,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1010,7 +1104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,34 +1196,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1141,49 +1235,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1193,52 +1280,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1257,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,34 +1490,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1388,49 +1529,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1440,52 +1574,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1504,7 +1692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,34 +1784,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1635,49 +1823,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1687,52 +1868,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1751,7 +1986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1843,34 +2078,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1882,49 +2117,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1934,52 +2162,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1998,7 +2280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2090,34 +2372,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2129,49 +2411,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2181,52 +2456,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2245,7 +2574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2337,34 +2666,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2376,49 +2705,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2428,52 +2750,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2492,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2584,34 +2960,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2623,49 +2999,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2675,52 +3044,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2739,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,34 +3254,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2870,49 +3293,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2922,52 +3338,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2986,7 +3456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3078,34 +3548,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3117,49 +3587,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3169,52 +3632,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3233,7 +3750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3325,34 +3842,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3364,49 +3881,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3416,52 +3926,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3480,7 +4044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3572,34 +4136,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3611,49 +4175,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3663,52 +4220,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3727,7 +4338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3819,34 +4430,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3858,49 +4469,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3910,52 +4514,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3974,7 +4632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4066,34 +4724,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4105,49 +4763,42 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4157,52 +4808,106 @@
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,34 +608,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -649,8 +649,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -661,65 +661,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -734,57 +734,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -792,6 +792,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -810,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,34 +1080,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -943,8 +1121,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -955,65 +1133,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -1028,57 +1206,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -1086,6 +1264,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1104,7 +1460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,34 +1552,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1237,8 +1593,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -1249,65 +1605,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -1322,57 +1678,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -1380,6 +1736,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1398,7 +1932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,34 +2024,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1531,8 +2065,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -1543,65 +2077,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -1616,57 +2150,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -1674,6 +2208,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1692,7 +2404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,34 +2496,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1825,8 +2537,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -1837,65 +2549,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -1910,57 +2622,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -1968,6 +2680,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1986,7 +2876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,34 +2968,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2119,8 +3009,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -2131,65 +3021,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -2204,57 +3094,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -2262,6 +3152,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2280,7 +3348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,34 +3440,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2413,8 +3481,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -2425,65 +3493,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -2498,57 +3566,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -2556,6 +3624,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2574,7 +3820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2666,34 +3912,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2707,8 +3953,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -2719,65 +3965,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -2792,57 +4038,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -2850,6 +4096,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2868,7 +4292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2960,34 +4384,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3001,8 +4425,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -3013,65 +4437,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -3086,57 +4510,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -3144,6 +4568,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3162,7 +4764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,34 +4856,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3295,8 +4897,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -3307,65 +4909,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -3380,57 +4982,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -3438,6 +5040,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3456,7 +5236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3548,34 +5328,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3589,8 +5369,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -3601,65 +5381,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -3674,57 +5454,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -3732,6 +5512,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3750,7 +5708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3842,34 +5800,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3883,8 +5841,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -3895,65 +5853,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -3968,57 +5926,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -4026,6 +5984,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4044,7 +6180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4136,34 +6272,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4177,8 +6313,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -4189,65 +6325,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -4262,57 +6398,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -4320,6 +6456,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4338,7 +6652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,34 +6744,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4471,8 +6785,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -4483,65 +6797,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -4556,57 +6870,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -4614,6 +6928,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4632,7 +7124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,34 +7216,34 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4765,8 +7257,8 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
+          <t>Lớp: CL03
+Môn: Mạng máy tính
 GV: Trần Thị B
 (Thực hành)</t>
         </is>
@@ -4777,65 +7269,65 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
@@ -4850,57 +7342,57 @@
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Phạm Văn D
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Trần Thị B
 (Thực hành)</t>
         </is>
       </c>
@@ -4908,6 +7400,184 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,8 +608,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -621,103 +621,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -725,49 +720,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -779,15 +774,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -801,16 +796,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -818,22 +813,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -848,31 +850,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -880,10 +889,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -892,84 +913,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -988,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,8 +1033,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1093,103 +1046,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -1197,49 +1145,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -1251,15 +1199,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -1273,16 +1221,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -1290,22 +1238,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -1320,31 +1275,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1352,10 +1314,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -1364,84 +1338,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1460,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,8 +1458,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1565,103 +1471,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -1669,49 +1570,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -1723,15 +1624,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -1745,16 +1646,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -1762,22 +1663,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -1792,31 +1700,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1824,10 +1739,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -1836,84 +1763,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1932,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2024,8 +1883,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2037,103 +1896,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -2141,49 +1995,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -2195,15 +2049,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -2217,16 +2071,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -2234,22 +2088,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -2264,31 +2125,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2296,10 +2164,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -2308,84 +2188,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2404,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2496,8 +2308,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2509,103 +2321,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -2613,49 +2420,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -2667,15 +2474,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -2689,16 +2496,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -2706,22 +2513,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -2736,31 +2550,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2768,10 +2589,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -2780,84 +2613,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2968,8 +2733,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2981,103 +2746,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -3085,49 +2845,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -3139,15 +2899,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -3161,16 +2921,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -3178,22 +2938,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -3208,31 +2975,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3240,10 +3014,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -3252,84 +3038,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3348,7 +3066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,8 +3158,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3453,103 +3171,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -3557,49 +3270,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -3611,15 +3324,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -3633,16 +3346,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -3650,22 +3363,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -3680,31 +3400,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3712,10 +3439,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -3724,84 +3463,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3820,7 +3491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3912,8 +3583,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3925,103 +3596,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -4029,49 +3695,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -4083,15 +3749,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -4105,16 +3771,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -4122,22 +3788,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -4152,31 +3825,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4184,10 +3864,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -4196,84 +3888,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4292,7 +3916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4384,8 +4008,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4397,103 +4021,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -4501,49 +4120,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -4555,15 +4174,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -4577,16 +4196,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -4594,22 +4213,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -4624,31 +4250,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4656,10 +4289,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -4668,84 +4313,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4764,7 +4341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4856,8 +4433,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4869,103 +4446,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -4973,49 +4545,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -5027,15 +4599,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -5049,16 +4621,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -5066,22 +4638,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -5096,31 +4675,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -5128,10 +4714,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -5140,84 +4738,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5236,7 +4766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5328,8 +4858,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5341,103 +4871,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -5445,49 +4970,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -5499,15 +5024,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -5521,16 +5046,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -5538,22 +5063,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -5568,31 +5100,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -5600,10 +5139,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -5612,84 +5163,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5708,7 +5191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5800,8 +5283,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5813,103 +5296,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -5917,49 +5395,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -5971,15 +5449,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -5993,16 +5471,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -6010,22 +5488,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -6040,31 +5525,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -6072,10 +5564,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -6084,84 +5588,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6180,7 +5616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6272,8 +5708,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -6285,103 +5721,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -6389,49 +5820,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -6443,15 +5874,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -6465,16 +5896,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -6482,22 +5913,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -6512,31 +5950,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -6544,10 +5989,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -6556,84 +6013,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6652,7 +6041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6744,8 +6133,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -6757,103 +6146,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -6861,49 +6245,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -6915,15 +6299,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -6937,16 +6321,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -6954,22 +6338,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -6984,31 +6375,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -7016,10 +6414,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -7028,84 +6438,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7124,7 +6466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7216,8 +6558,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -7229,103 +6571,98 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Thực hành)</t>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -7333,49 +6670,49 @@
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
@@ -7387,15 +6724,15 @@
           <t>LAB03</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
@@ -7409,16 +6746,16 @@
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Thiết kế Web
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
@@ -7426,22 +6763,29 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="6" t="inlineStr">
@@ -7456,31 +6800,38 @@
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr"/>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Thiết kế Web
+GV: Trần Thị B
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Phạm Văn D
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Thiết kế Web
-GV: Trần Thị B
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Mạng máy tính
-GV: Trần Thị B
+          <t>Lớp: CL03
+Môn: Thiết kế Web
+GV: Phạm Văn D
 (Lý thuyết)</t>
         </is>
       </c>
@@ -7488,10 +6839,22 @@
       <c r="E19" s="7" t="inlineStr"/>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>R102</t>
@@ -7500,84 +6863,16 @@
       <c r="C20" s="7" t="inlineStr"/>
       <c r="D20" s="7" t="inlineStr"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Mạng máy tính
+GV: Trần Thị B
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Mạng máy tính
-GV: Trần Thị B
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>LAB01</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Mạng máy tính
-GV: Phạm Văn D
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Thiết kế Web
-GV: Phạm Văn D
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr"/>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
